--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_15-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_15-02.xlsx
@@ -83,6 +83,9 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>EUTHYROX 50MCG 50 TAB</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
   </si>
   <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
   </si>
   <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
@@ -1048,7 +1048,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1066,7 +1066,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1092,7 +1092,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1144,7 +1144,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1170,7 +1170,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1178,7 +1178,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1196,7 +1196,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1204,7 +1204,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1222,7 +1222,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1248,7 +1248,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1282,7 +1282,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1300,7 +1300,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1308,7 +1308,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1326,7 +1326,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1352,7 +1352,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1378,7 +1378,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1386,7 +1386,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1404,7 +1404,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1430,7 +1430,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1438,7 +1438,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1464,7 +1464,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1828,7 +1828,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -1854,7 +1854,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -1984,7 +1984,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
